--- a/Stocks/BPCL.xlsx
+++ b/Stocks/BPCL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>735.08333333333337</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>482.22897822353792</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>476.14083322500346</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>56.971224614470131</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.8000000000000114</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>4.8000000000000114</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.58333333333333437</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>535.33798314392152</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-44.547056588510827</v>
       </c>
       <c r="Y67">
         <v>-49.314038476647546</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>508.3</v>
+      </c>
+      <c r="D83">
+        <v>509.85</v>
+      </c>
+      <c r="E83">
+        <v>500.5</v>
+      </c>
+      <c r="F83">
+        <v>508.3</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>506.2166666666667</v>
+      </c>
+      <c r="H83">
+        <v>506.95264250149881</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>509.69852499311372</v>
+      </c>
+      <c r="K83">
+        <v>495.15798078331102</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>62.479647840037401</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>7.8000000000000114</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>9.3500000000000227</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.83422459893048051</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>501.67526046226334</v>
+      </c>
+      <c r="W83">
+        <v>510.89733646861441</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-9.2220760063510738</v>
+      </c>
+      <c r="Y83">
+        <v>-16.537586787292476</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>508</v>
+      </c>
+      <c r="D84">
+        <v>518.45000000000005</v>
+      </c>
+      <c r="E84">
+        <v>501.45</v>
+      </c>
+      <c r="F84">
+        <v>503.05</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>507.65000000000003</v>
+      </c>
+      <c r="H84">
+        <v>507.30132125074942</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>511.64329721686624</v>
+      </c>
+      <c r="K84">
+        <v>496.55620727590855</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>50.037393654649442</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>17.000000000000057</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>9.4117647058824555E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>501.88675885268435</v>
+      </c>
+      <c r="W84">
+        <v>510.3160522857541</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-8.4292934330697449</v>
+      </c>
+      <c r="Y84">
+        <v>-14.91592811644793</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>510.9</v>
+      </c>
+      <c r="D85">
+        <v>524.29999999999995</v>
+      </c>
+      <c r="E85">
+        <v>508</v>
+      </c>
+      <c r="F85">
+        <v>521</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>517.76666666666665</v>
+      </c>
+      <c r="H85">
+        <v>512.53399395870804</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>514.45589783534035</v>
+      </c>
+      <c r="K85">
+        <v>499.09927232570664</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>73.009093402862732</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>16.299999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.79754601226994093</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>504.8272574907329</v>
+      </c>
+      <c r="W85">
+        <v>511.10745582014266</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-6.2801983294097568</v>
+      </c>
+      <c r="Y85">
+        <v>-13.188782159040295</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>520.5</v>
+      </c>
+      <c r="D86">
+        <v>534.45000000000005</v>
+      </c>
+      <c r="E86">
+        <v>516.9</v>
+      </c>
+      <c r="F86">
+        <v>528.04999999999995</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>526.46666666666658</v>
+      </c>
+      <c r="H86">
+        <v>519.50033031268731</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>518.89903164970917</v>
+      </c>
+      <c r="K86">
+        <v>503.05498958666072</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>77.979667899010792</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>11.149999999999977</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>17.550000000000068</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.63532763532763159</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>508.39998710754321</v>
+      </c>
+      <c r="W86">
+        <v>512.36245909272463</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-3.9624719851814234</v>
+      </c>
+      <c r="Y86">
+        <v>-11.343520124268521</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>532</v>
+      </c>
+      <c r="D87">
+        <v>539.85</v>
+      </c>
+      <c r="E87">
+        <v>525.1</v>
+      </c>
+      <c r="F87">
+        <v>536.20000000000005</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>533.7166666666667</v>
+      </c>
+      <c r="H87">
+        <v>526.608498489677</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>523.5548023942182</v>
+      </c>
+      <c r="K87">
+        <v>507.95388078962503</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>82.607937987656555</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>11.100000000000023</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>14.75</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.7525423728813575</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>512.67691216792116</v>
+      </c>
+      <c r="W87">
+        <v>514.12820286363387</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1.4512906957127143</v>
+      </c>
+      <c r="Y87">
+        <v>-9.3650742385573587</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>537.4</v>
+      </c>
+      <c r="D88">
+        <v>546.1</v>
+      </c>
+      <c r="E88">
+        <v>527.5</v>
+      </c>
+      <c r="F88">
+        <v>529.85</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>534.48333333333323</v>
+      </c>
+      <c r="H88">
+        <v>530.54591591150506</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>528.56484630661419</v>
+      </c>
+      <c r="K88">
+        <v>512.29746283637508</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>68.571293465740339</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.3500000000000227</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>18.600000000000023</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.12634408602150646</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>515.31892568054866</v>
+      </c>
+      <c r="W88">
+        <v>515.29278042929059</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>2.6145251258071767E-2</v>
+      </c>
+      <c r="Y88">
+        <v>-7.4868303405942722</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>530.1</v>
+      </c>
+      <c r="D89">
+        <v>541.5</v>
+      </c>
+      <c r="E89">
+        <v>527.5</v>
+      </c>
+      <c r="F89">
+        <v>538.79999999999995</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>535.93333333333328</v>
+      </c>
+      <c r="H89">
+        <v>533.23962462241911</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>531.43932490514442</v>
+      </c>
+      <c r="K89">
+        <v>515.67580442829171</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>75.812254793079376</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>11.299999999999955</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.80714285714285394</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>518.93139865277192</v>
+      </c>
+      <c r="W89">
+        <v>517.03405595304685</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>1.8973426997250726</v>
+      </c>
+      <c r="Y89">
+        <v>-5.6099957325304031</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>529.1</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>532.85</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>534.5</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>536.15</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>537.29999999999995</v>
+      </c>
+      <c r="D90">
+        <v>537.29999999999995</v>
+      </c>
+      <c r="E90">
+        <v>529.75</v>
+      </c>
+      <c r="F90">
+        <v>534.9</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>533.98333333333323</v>
+      </c>
+      <c r="H90">
+        <v>533.61147897787623</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>532.74169714844561</v>
+      </c>
+      <c r="K90">
+        <v>518.80340344422689</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>67.359121461758818</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>5.1499999999999773</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>7.5499999999999545</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.6821192052980144</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>521.38810655234545</v>
+      </c>
+      <c r="W90">
+        <v>518.35745921578416</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>3.0306473365612874</v>
+      </c>
+      <c r="Y90">
+        <v>-3.8818671187120648</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>538</v>
+      </c>
+      <c r="D91">
+        <v>538.75</v>
+      </c>
+      <c r="E91">
+        <v>521.95000000000005</v>
+      </c>
+      <c r="F91">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>527.9666666666667</v>
+      </c>
+      <c r="H91">
+        <v>530.78907282227146</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>534.07687555990219</v>
+      </c>
+      <c r="K91">
+        <v>519.5026471232876</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>47.498608535745056</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>16.799999999999955</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>7.4404761904762112E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>521.66685939044612</v>
+      </c>
+      <c r="W91">
+        <v>518.71616594054092</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>2.9506934499052022</v>
+      </c>
+      <c r="Y91">
+        <v>-2.5153550049886113</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>525</v>
+      </c>
+      <c r="D92">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="E92">
+        <v>511.2</v>
+      </c>
+      <c r="F92">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>517.36666666666667</v>
+      </c>
+      <c r="H92">
+        <v>524.07786974446913</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>532.65979210214618</v>
+      </c>
+      <c r="K92">
+        <v>517.65761442922371</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>36.120462566619373</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.0000000000000568</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>16.500000000000057</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.12121212121212424</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>520.36426563806981</v>
+      </c>
+      <c r="W92">
+        <v>518.30756105605644</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>2.0567045820133671</v>
+      </c>
+      <c r="Y92">
+        <v>-1.6009430875882154</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>519</v>
+      </c>
+      <c r="D93">
+        <v>523.79999999999995</v>
+      </c>
+      <c r="E93">
+        <v>510.5</v>
+      </c>
+      <c r="F93">
+        <v>513.65</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>515.98333333333323</v>
+      </c>
+      <c r="H93">
+        <v>520.03060153890124</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>530.69094941278036</v>
+      </c>
+      <c r="K93">
+        <v>516.06703344495179</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>36.969764418194309</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.1499999999999773</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>13.299999999999955</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.23684210526315699</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>519.33130169375136</v>
+      </c>
+      <c r="W93">
+        <v>517.96255653338562</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>1.3687451603657337</v>
+      </c>
+      <c r="Y93">
+        <v>-1.0070054379974254</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>515.9</v>
+      </c>
+      <c r="D94">
+        <v>535.15</v>
+      </c>
+      <c r="E94">
+        <v>512.54999999999995</v>
+      </c>
+      <c r="F94">
+        <v>534.6</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>527.43333333333328</v>
+      </c>
+      <c r="H94">
+        <v>523.7319674361172</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>531.68184954327364</v>
+      </c>
+      <c r="K94">
+        <v>515.28547045718472</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>64.46431146836315</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>22.050000000000068</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>22.600000000000023</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.97566371681416131</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>521.680332202405</v>
+      </c>
+      <c r="W94">
+        <v>519.19495975313487</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>2.4853724492701303</v>
+      </c>
+      <c r="Y94">
+        <v>-0.30852986054391418</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>536</v>
+      </c>
+      <c r="D95">
+        <v>540.4</v>
+      </c>
+      <c r="E95">
+        <v>489</v>
+      </c>
+      <c r="F95">
+        <v>499.4</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>509.60000000000008</v>
+      </c>
+      <c r="H95">
+        <v>516.66598371805867</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>533.61921631143503</v>
+      </c>
+      <c r="K95">
+        <v>509.44425480003258</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>33.642633715287843</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>10.399999999999977</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>51.399999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.20233463035019419</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>518.25258878665034</v>
+      </c>
+      <c r="W95">
+        <v>517.72866643808788</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>0.52392234856245068</v>
+      </c>
+      <c r="Y95">
+        <v>-0.1420394187226412</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>520</v>
+      </c>
+      <c r="D96">
+        <v>524.9</v>
+      </c>
+      <c r="E96">
+        <v>487.05</v>
+      </c>
+      <c r="F96">
+        <v>501</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>504.31666666666666</v>
+      </c>
+      <c r="H96">
+        <v>510.49132519236264</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>531.68161268667166</v>
+      </c>
+      <c r="K96">
+        <v>504.46775373335868</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>35.39761626459827</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>13.949999999999989</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>37.849999999999966</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.36856010568031705</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>515.59834435793493</v>
+      </c>
+      <c r="W96">
+        <v>516.48950596119244</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-0.89116160325750116</v>
+      </c>
+      <c r="Y96">
+        <v>-0.29186385562961314</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>500</v>
+      </c>
+      <c r="D97">
+        <v>503</v>
+      </c>
+      <c r="E97">
+        <v>491.25</v>
+      </c>
+      <c r="F97">
+        <v>498.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>497.58333333333331</v>
+      </c>
+      <c r="H97">
+        <v>504.03732926284795</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>525.30792097852236</v>
+      </c>
+      <c r="K97">
+        <v>501.53047512594566</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>33.658957472030323</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>7.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>11.75</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.61702127659574468</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>512.9678298413296</v>
+      </c>
+      <c r="W97">
+        <v>515.15694996406705</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-2.1891201227374495</v>
+      </c>
+      <c r="Y97">
+        <v>-0.67131510905118041</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>504</v>
+      </c>
+      <c r="D98">
+        <v>506.8</v>
+      </c>
+      <c r="E98">
+        <v>493.35</v>
+      </c>
+      <c r="F98">
+        <v>498.2</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>499.45000000000005</v>
+      </c>
+      <c r="H98">
+        <v>501.743664631424</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>521.19504964996179</v>
+      </c>
+      <c r="K98">
+        <v>499.71259176462439</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>33.412782303193985</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>4.8499999999999659</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>13.449999999999989</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.36059479553903123</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>510.69585601958659</v>
+      </c>
+      <c r="W98">
+        <v>513.90087959635844</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-3.2050235767718505</v>
+      </c>
+      <c r="Y98">
+        <v>-1.1780568025953144</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>498.9</v>
+      </c>
+      <c r="D99">
+        <v>508.2</v>
+      </c>
+      <c r="E99">
+        <v>493.65</v>
+      </c>
+      <c r="F99">
+        <v>507.25</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>503.0333333333333</v>
+      </c>
+      <c r="H99">
+        <v>502.38849898237868</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>518.30726083885918</v>
+      </c>
+      <c r="K99">
+        <v>498.3653491502634</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>47.807132893108673</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>13.600000000000023</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>14.550000000000011</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.93470790378006952</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>510.16572432426557</v>
+      </c>
+      <c r="W99">
+        <v>513.40822184848003</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-3.2424975242144569</v>
+      </c>
+      <c r="Y99">
+        <v>-1.590944946919143</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>507</v>
+      </c>
+      <c r="D100">
+        <v>507</v>
+      </c>
+      <c r="E100">
+        <v>492.5</v>
+      </c>
+      <c r="F100">
+        <v>494.5</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>498</v>
+      </c>
+      <c r="H100">
+        <v>500.19424949118934</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>515.79453620800155</v>
+      </c>
+      <c r="K100">
+        <v>497.06193822798264</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>34.625507315841041</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>507.7556128897632</v>
+      </c>
+      <c r="W100">
+        <v>512.00761282266672</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-4.2519999329035159</v>
+      </c>
+      <c r="Y100">
+        <v>-2.1231559441160175</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>495</v>
+      </c>
+      <c r="D101">
+        <v>500</v>
+      </c>
+      <c r="E101">
+        <v>490.75</v>
+      </c>
+      <c r="F101">
+        <v>495.15</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>495.3</v>
+      </c>
+      <c r="H101">
+        <v>497.74712474559465</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>512.2846392728901</v>
+      </c>
+      <c r="K101">
+        <v>495.65928528843097</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>35.754349392405047</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>9.25</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.4756756756756732</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>505.81628782979965</v>
+      </c>
+      <c r="W101">
+        <v>510.75890076172846</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-4.9426129319288066</v>
+      </c>
+      <c r="Y101">
+        <v>-2.6870473416785754</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>494.05</v>
+      </c>
+      <c r="D102">
+        <v>497.25</v>
+      </c>
+      <c r="E102">
+        <v>483.1</v>
+      </c>
+      <c r="F102">
+        <v>492.5</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>490.95</v>
+      </c>
+      <c r="H102">
+        <v>494.34856237279735</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>508.94360832335894</v>
+      </c>
+      <c r="K102">
+        <v>492.86833300211299</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>32.862547029711841</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>14.149999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.66431095406360374</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>503.76762816367665</v>
+      </c>
+      <c r="W102">
+        <v>509.406389594193</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-5.6387614305163538</v>
+      </c>
+      <c r="Y102">
+        <v>-3.277390159446131</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>487.7</v>
+      </c>
+      <c r="D103">
+        <v>492.5</v>
+      </c>
+      <c r="E103">
+        <v>478.25</v>
+      </c>
+      <c r="F103">
+        <v>487</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>485.91666666666669</v>
+      </c>
+      <c r="H103">
+        <v>490.13261451973199</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>505.28947314039027</v>
+      </c>
+      <c r="K103">
+        <v>489.61981455719899</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>27.162957162071489</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>8.75</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>14.25</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.61403508771929827</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>501.18799306157257</v>
+      </c>
+      <c r="W103">
+        <v>507.74665703166016</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-6.5586639700875935</v>
+      </c>
+      <c r="Y103">
+        <v>-3.9336449215744236</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>483</v>
+      </c>
+      <c r="D104">
+        <v>485.55</v>
+      </c>
+      <c r="E104">
+        <v>460.05</v>
+      </c>
+      <c r="F104">
+        <v>468.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>471.36666666666662</v>
+      </c>
+      <c r="H104">
+        <v>480.74964059319927</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>500.90292355363687</v>
+      </c>
+      <c r="K104">
+        <v>483.04874465559919</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>15.708169913935082</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>25.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.33137254901960739</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>496.15907105209988</v>
+      </c>
+      <c r="W104">
+        <v>504.83949725153718</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-8.6804261994373064</v>
+      </c>
+      <c r="Y104">
+        <v>-4.8830011771470003</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>472</v>
+      </c>
+      <c r="D105">
+        <v>476.5</v>
+      </c>
+      <c r="E105">
+        <v>462.65</v>
+      </c>
+      <c r="F105">
+        <v>466</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>468.38333333333338</v>
+      </c>
+      <c r="H105">
+        <v>474.56648696326636</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>495.48005165282865</v>
+      </c>
+      <c r="K105">
+        <v>478.51569028768824</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>14.663619389539583</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>3.3500000000000227</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>13.850000000000023</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.24187725631769078</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>491.51921396716142</v>
+      </c>
+      <c r="W105">
+        <v>501.96249745512699</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-10.443283487965573</v>
+      </c>
+      <c r="Y105">
+        <v>-5.9950576393107147</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>463.3</v>
+      </c>
+      <c r="D106">
+        <v>465.4</v>
+      </c>
+      <c r="E106">
+        <v>449.4</v>
+      </c>
+      <c r="F106">
+        <v>463</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>459.26666666666665</v>
+      </c>
+      <c r="H106">
+        <v>466.9165768149665</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>488.79559572997783</v>
+      </c>
+      <c r="K106">
+        <v>472.04553689042416</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>13.333642966818001</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>13.600000000000023</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.85000000000000142</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>487.13164258759815</v>
+      </c>
+      <c r="W106">
+        <v>499.07638653252502</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-11.94474394492687</v>
+      </c>
+      <c r="Y106">
+        <v>-7.1849949004339457</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>466</v>
+      </c>
+      <c r="D107">
+        <v>476</v>
+      </c>
+      <c r="E107">
+        <v>462.1</v>
+      </c>
+      <c r="F107">
+        <v>475</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>471.0333333333333</v>
+      </c>
+      <c r="H107">
+        <v>468.97495507414988</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>485.95213001220498</v>
+      </c>
+      <c r="K107">
+        <v>469.83541758144099</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>40.373829554714192</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>13.899999999999977</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.92805755395683442</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>485.26523603566</v>
+      </c>
+      <c r="W107">
+        <v>497.29295049307871</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-12.02771445741871</v>
+      </c>
+      <c r="Y107">
+        <v>-8.1535388118308987</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
